--- a/SenaDocs/doc/trim5/Plan de implementacion/Plan de capacitacion/Capacitación.xlsx
+++ b/SenaDocs/doc/trim5/Plan de implementacion/Plan de capacitacion/Capacitación.xlsx
@@ -1,44 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FABIAN ESCOBAR VARGA\OneDrive\Fabian Escobar\Escritorio\Oscar personal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AMBIENTE 314\Desktop\TPS_FDS-2671339-HS1\SenaDocs\doc\trim5\Plan de implementacion\Plan de capacitacion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695A6E91-228D-4084-A191-4EE492D07ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93321152-1D86-4F1D-A1E5-3CE26ED89A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{2E73F89D-9F28-4575-8715-5489E4C14744}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{2E73F89D-9F28-4575-8715-5489E4C14744}"/>
   </bookViews>
   <sheets>
     <sheet name="Pre-capacitación" sheetId="1" r:id="rId1"/>
     <sheet name="Durante-capacitación" sheetId="2" r:id="rId2"/>
     <sheet name="Post-capacitación" sheetId="4" r:id="rId3"/>
+    <sheet name="Aglomerado" sheetId="6" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">Aglomerado!$B$1:$E$27</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="18">
   <si>
     <t>PRE-CAPACITACIÓN</t>
   </si>
@@ -89,6 +82,9 @@
   </si>
   <si>
     <t>Se les mencionó a los participantes dónde y cómo pueden obtener ayuda si tienen dificultades con el sistema.</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
@@ -335,24 +331,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -388,6 +366,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -726,7 +722,7 @@
   <dimension ref="B1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B2" sqref="B2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,64 +736,64 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="17"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -809,10 +805,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E9BA8F2-7EFA-4454-B013-EDE172BCE0B4}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B2" sqref="B2:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,72 +822,77 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="7" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="16"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="10"/>
     </row>
     <row r="8" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="17"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="11"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -905,8 +906,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901E4054-FFBA-40FE-B1C8-16BD3675961C}">
   <dimension ref="B1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,56 +921,56 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="6"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="8"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
     </row>
     <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="16"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
     </row>
     <row r="6" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="16"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -977,4 +978,221 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C13517-0613-4433-A2A1-95E5426B97AE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:E27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="84.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.42578125" style="1"/>
+    <col min="5" max="5" width="44.85546875" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="10"/>
+    </row>
+    <row r="7" spans="2:5" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="11"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+    </row>
+    <row r="10" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="10"/>
+    </row>
+    <row r="16" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="10"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="11"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="20"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="10"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E3"/>
+    <mergeCell ref="B11:E12"/>
+    <mergeCell ref="B21:E22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <colBreaks count="1" manualBreakCount="1">
+    <brk id="1" max="26" man="1"/>
+  </colBreaks>
+</worksheet>
 </file>